--- a/veriset_6.xlsx
+++ b/veriset_6.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="6 değişkenli" sheetId="1" r:id="rId1"/>
+    <sheet name="veriset_6" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
@@ -22,16 +22,16 @@
     <t>Gelir</t>
   </si>
   <si>
-    <t>İş Deneyimi</t>
+    <t>İş_Deneyimi</t>
   </si>
   <si>
-    <t>Harcama Miktarı</t>
+    <t>Harcama_Miktarı</t>
   </si>
   <si>
-    <t>Çalışma Saati</t>
+    <t>Çalışma_Saati</t>
   </si>
   <si>
-    <t>Mutluluk Skoru</t>
+    <t>Mutluluk_Skoru</t>
   </si>
 </sst>
 </file>
@@ -388,7 +388,7 @@
   <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
